--- a/data/pca/factorExposure/factorExposure_2015-10-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01772427034048628</v>
+        <v>0.01748656753763788</v>
       </c>
       <c r="C2">
-        <v>0.02664450528907601</v>
+        <v>0.03415340827374531</v>
       </c>
       <c r="D2">
-        <v>-0.1110899328853573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1275521905149097</v>
+      </c>
+      <c r="E2">
+        <v>0.05124088303857854</v>
+      </c>
+      <c r="F2">
+        <v>0.03181222667898533</v>
+      </c>
+      <c r="G2">
+        <v>0.05603741757398575</v>
+      </c>
+      <c r="H2">
+        <v>0.09933031616084147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0132669400945484</v>
+        <v>0.008470027391206492</v>
       </c>
       <c r="C3">
-        <v>0.04971127075512888</v>
+        <v>0.03992179075682675</v>
       </c>
       <c r="D3">
-        <v>-0.07445598427818852</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0527919110792395</v>
+      </c>
+      <c r="E3">
+        <v>0.05313379011353255</v>
+      </c>
+      <c r="F3">
+        <v>0.06923804143408333</v>
+      </c>
+      <c r="G3">
+        <v>0.1177581684880451</v>
+      </c>
+      <c r="H3">
+        <v>0.09316538983006487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04602788092734614</v>
+        <v>0.04669070350171797</v>
       </c>
       <c r="C4">
-        <v>0.06279831253583024</v>
+        <v>0.0730036276868508</v>
       </c>
       <c r="D4">
-        <v>-0.1246038330083206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1492804799529731</v>
+      </c>
+      <c r="E4">
+        <v>0.06152435685210392</v>
+      </c>
+      <c r="F4">
+        <v>0.04677292183375124</v>
+      </c>
+      <c r="G4">
+        <v>-0.04430753210889703</v>
+      </c>
+      <c r="H4">
+        <v>0.01354874714565595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03554786569129645</v>
+        <v>0.03735540573822434</v>
       </c>
       <c r="C6">
-        <v>0.02312375345465981</v>
+        <v>0.0293263225558497</v>
       </c>
       <c r="D6">
-        <v>-0.1519133918842877</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.139897965344002</v>
+      </c>
+      <c r="E6">
+        <v>0.0138391506823824</v>
+      </c>
+      <c r="F6">
+        <v>0.02961915170948848</v>
+      </c>
+      <c r="G6">
+        <v>-0.01486448883948009</v>
+      </c>
+      <c r="H6">
+        <v>0.0607502619135553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01764998839614175</v>
+        <v>0.01453817405141391</v>
       </c>
       <c r="C7">
-        <v>0.02613200981903204</v>
+        <v>0.03239301276082609</v>
       </c>
       <c r="D7">
-        <v>-0.1064028328808457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09730858543856655</v>
+      </c>
+      <c r="E7">
+        <v>0.009572182392675719</v>
+      </c>
+      <c r="F7">
+        <v>0.03038488677475023</v>
+      </c>
+      <c r="G7">
+        <v>0.009184904692297621</v>
+      </c>
+      <c r="H7">
+        <v>0.06998405267953957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01013508990972329</v>
+        <v>0.007975021227316548</v>
       </c>
       <c r="C8">
-        <v>0.03261999240285381</v>
+        <v>0.03644699545151088</v>
       </c>
       <c r="D8">
-        <v>-0.06457523250739337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07595469232949099</v>
+      </c>
+      <c r="E8">
+        <v>0.0272981759649368</v>
+      </c>
+      <c r="F8">
+        <v>0.06866744236700519</v>
+      </c>
+      <c r="G8">
+        <v>0.03429923633126142</v>
+      </c>
+      <c r="H8">
+        <v>0.0552070459541026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03916629601934723</v>
+        <v>0.03839562078115828</v>
       </c>
       <c r="C9">
-        <v>0.05470870538323576</v>
+        <v>0.06519899211118017</v>
       </c>
       <c r="D9">
-        <v>-0.1118902373352237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1231756288634679</v>
+      </c>
+      <c r="E9">
+        <v>0.04400538241587306</v>
+      </c>
+      <c r="F9">
+        <v>0.02640004953602666</v>
+      </c>
+      <c r="G9">
+        <v>-0.02540658815304866</v>
+      </c>
+      <c r="H9">
+        <v>0.01146545099229159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1148193106929516</v>
+        <v>0.1508206258900293</v>
       </c>
       <c r="C10">
-        <v>-0.1880331444714702</v>
+        <v>-0.188188773448964</v>
       </c>
       <c r="D10">
-        <v>-0.007232304058912933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01025703829662006</v>
+      </c>
+      <c r="E10">
+        <v>0.03819952699825936</v>
+      </c>
+      <c r="F10">
+        <v>0.05300425681171204</v>
+      </c>
+      <c r="G10">
+        <v>-0.0001900864310150919</v>
+      </c>
+      <c r="H10">
+        <v>-0.0433334050302479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03056762986360054</v>
+        <v>0.02828662714193809</v>
       </c>
       <c r="C11">
-        <v>0.04183106663118558</v>
+        <v>0.04590831612474764</v>
       </c>
       <c r="D11">
-        <v>-0.06124766762100961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0594145745755415</v>
+      </c>
+      <c r="E11">
+        <v>-0.009828259231683144</v>
+      </c>
+      <c r="F11">
+        <v>-0.004900714387158502</v>
+      </c>
+      <c r="G11">
+        <v>-1.239682286715102e-05</v>
+      </c>
+      <c r="H11">
+        <v>0.03066741726597655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0368625004255114</v>
+        <v>0.03288810169149496</v>
       </c>
       <c r="C12">
-        <v>0.04263594397352041</v>
+        <v>0.04769573220478313</v>
       </c>
       <c r="D12">
-        <v>-0.06046574358116266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05648368380383003</v>
+      </c>
+      <c r="E12">
+        <v>-0.0002846675455084406</v>
+      </c>
+      <c r="F12">
+        <v>-0.008009318962813664</v>
+      </c>
+      <c r="G12">
+        <v>0.00684290877381266</v>
+      </c>
+      <c r="H12">
+        <v>0.03007768598301565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0113692877177648</v>
+        <v>0.01735881360858538</v>
       </c>
       <c r="C13">
-        <v>0.03439713469334727</v>
+        <v>0.037742931996646</v>
       </c>
       <c r="D13">
-        <v>-0.1392429591768038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1557234797627568</v>
+      </c>
+      <c r="E13">
+        <v>0.02377938350125606</v>
+      </c>
+      <c r="F13">
+        <v>0.06136497040795436</v>
+      </c>
+      <c r="G13">
+        <v>0.02534492432229665</v>
+      </c>
+      <c r="H13">
+        <v>0.06687326703677114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.004707557164798</v>
+        <v>0.007431716354476102</v>
       </c>
       <c r="C14">
-        <v>0.02081187500128352</v>
+        <v>0.02351161676565636</v>
       </c>
       <c r="D14">
-        <v>-0.09145746472312889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09509508386808718</v>
+      </c>
+      <c r="E14">
+        <v>0.0274159633229598</v>
+      </c>
+      <c r="F14">
+        <v>0.01800692892555573</v>
+      </c>
+      <c r="G14">
+        <v>0.01024019056461739</v>
+      </c>
+      <c r="H14">
+        <v>0.09280451053262564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002750479623674638</v>
+        <v>0.00134719027412082</v>
       </c>
       <c r="C15">
-        <v>0.00497762290621997</v>
+        <v>0.01202900017657973</v>
       </c>
       <c r="D15">
-        <v>-0.006286342107693527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03602864085712588</v>
+      </c>
+      <c r="E15">
+        <v>0.009920518069689004</v>
+      </c>
+      <c r="F15">
+        <v>0.002333933411441158</v>
+      </c>
+      <c r="G15">
+        <v>0.002014199924831277</v>
+      </c>
+      <c r="H15">
+        <v>0.02418830500801223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03092214673534048</v>
+        <v>0.02882457515408778</v>
       </c>
       <c r="C16">
-        <v>0.04334271710865481</v>
+        <v>0.04628656549289508</v>
       </c>
       <c r="D16">
-        <v>-0.06551074844708563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06198473404580575</v>
+      </c>
+      <c r="E16">
+        <v>0.006578633589910046</v>
+      </c>
+      <c r="F16">
+        <v>0.0009476873345918607</v>
+      </c>
+      <c r="G16">
+        <v>0.00135996992620429</v>
+      </c>
+      <c r="H16">
+        <v>0.04429457948507091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01065545292014905</v>
+        <v>0.008232118688926305</v>
       </c>
       <c r="C19">
-        <v>0.03019672571021272</v>
+        <v>0.02577350747930554</v>
       </c>
       <c r="D19">
-        <v>-0.1489541619399642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1144008515065951</v>
+      </c>
+      <c r="E19">
+        <v>0.05341402033260644</v>
+      </c>
+      <c r="F19">
+        <v>0.004920897662765531</v>
+      </c>
+      <c r="G19">
+        <v>0.02851717044372426</v>
+      </c>
+      <c r="H19">
+        <v>0.04563507765635418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01321993626316648</v>
+        <v>0.01513301606281339</v>
       </c>
       <c r="C20">
-        <v>0.03015243025954961</v>
+        <v>0.03454898451245408</v>
       </c>
       <c r="D20">
-        <v>-0.09163328056252837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1043948134029279</v>
+      </c>
+      <c r="E20">
+        <v>0.04594355725600982</v>
+      </c>
+      <c r="F20">
+        <v>0.01683286933424559</v>
+      </c>
+      <c r="G20">
+        <v>-0.002849105840633478</v>
+      </c>
+      <c r="H20">
+        <v>0.05236381450065156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008165122754693954</v>
+        <v>0.008957973100703337</v>
       </c>
       <c r="C21">
-        <v>0.03224624184321162</v>
+        <v>0.03797474272504153</v>
       </c>
       <c r="D21">
-        <v>-0.1399286319148834</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.141082697366205</v>
+      </c>
+      <c r="E21">
+        <v>0.07803709630749327</v>
+      </c>
+      <c r="F21">
+        <v>0.0490909475282803</v>
+      </c>
+      <c r="G21">
+        <v>0.005294051020807953</v>
+      </c>
+      <c r="H21">
+        <v>0.07169048420997236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001627935103610762</v>
+        <v>0.007306320491260442</v>
       </c>
       <c r="C22">
-        <v>0.04671976006485497</v>
+        <v>0.04171913470051802</v>
       </c>
       <c r="D22">
-        <v>-0.1088307112715399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1615538387134483</v>
+      </c>
+      <c r="E22">
+        <v>0.01640472185819675</v>
+      </c>
+      <c r="F22">
+        <v>0.09188285830050888</v>
+      </c>
+      <c r="G22">
+        <v>0.06638806475863718</v>
+      </c>
+      <c r="H22">
+        <v>0.05433390119672325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001475846358116778</v>
+        <v>0.007474266384660601</v>
       </c>
       <c r="C23">
-        <v>0.04701723803999443</v>
+        <v>0.04216568084252829</v>
       </c>
       <c r="D23">
-        <v>-0.1083820448151454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1609333250093034</v>
+      </c>
+      <c r="E23">
+        <v>0.01681221225018623</v>
+      </c>
+      <c r="F23">
+        <v>0.09201191897277869</v>
+      </c>
+      <c r="G23">
+        <v>0.06552805648877526</v>
+      </c>
+      <c r="H23">
+        <v>0.0537372475342963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03440331389442221</v>
+        <v>0.03049858323535545</v>
       </c>
       <c r="C24">
-        <v>0.05475016911053322</v>
+        <v>0.05802296906959228</v>
       </c>
       <c r="D24">
-        <v>-0.06721206098448035</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06544828835152192</v>
+      </c>
+      <c r="E24">
+        <v>0.007480710393063076</v>
+      </c>
+      <c r="F24">
+        <v>-3.473568507837303e-05</v>
+      </c>
+      <c r="G24">
+        <v>-0.008472802375185804</v>
+      </c>
+      <c r="H24">
+        <v>0.04762582843216426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03882165089792446</v>
+        <v>0.03449781112289003</v>
       </c>
       <c r="C25">
-        <v>0.05170432176196262</v>
+        <v>0.05506336537139481</v>
       </c>
       <c r="D25">
-        <v>-0.06581103240331782</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06227139976439681</v>
+      </c>
+      <c r="E25">
+        <v>0.007773626522910585</v>
+      </c>
+      <c r="F25">
+        <v>0.002028584183811954</v>
+      </c>
+      <c r="G25">
+        <v>0.003241112724489379</v>
+      </c>
+      <c r="H25">
+        <v>0.02048843316583253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01492028661252793</v>
+        <v>0.01587462391090685</v>
       </c>
       <c r="C26">
-        <v>0.01043789018388182</v>
+        <v>0.0182160434724059</v>
       </c>
       <c r="D26">
-        <v>-0.05869039619516315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06329157270014658</v>
+      </c>
+      <c r="E26">
+        <v>0.0203105942030691</v>
+      </c>
+      <c r="F26">
+        <v>0.01958349364085865</v>
+      </c>
+      <c r="G26">
+        <v>0.001922732512212052</v>
+      </c>
+      <c r="H26">
+        <v>0.0570405887592111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1678729155049238</v>
+        <v>0.2185550320600319</v>
       </c>
       <c r="C28">
-        <v>-0.2664138430601692</v>
+        <v>-0.257317045088761</v>
       </c>
       <c r="D28">
-        <v>0.003877338489983617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.001150733561581404</v>
+      </c>
+      <c r="E28">
+        <v>0.07490141701471313</v>
+      </c>
+      <c r="F28">
+        <v>0.040427699846285</v>
+      </c>
+      <c r="G28">
+        <v>-0.02891137381211402</v>
+      </c>
+      <c r="H28">
+        <v>-0.06034389096617093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0005948597621260473</v>
+        <v>0.004255752125443451</v>
       </c>
       <c r="C29">
-        <v>0.02130556432784364</v>
+        <v>0.02230366296787244</v>
       </c>
       <c r="D29">
-        <v>-0.07989768103094184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09219661158210563</v>
+      </c>
+      <c r="E29">
+        <v>0.01800950480883175</v>
+      </c>
+      <c r="F29">
+        <v>0.03626878575971419</v>
+      </c>
+      <c r="G29">
+        <v>0.0003202505147246356</v>
+      </c>
+      <c r="H29">
+        <v>0.08977205788066323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02943392918326136</v>
+        <v>0.03589493563895969</v>
       </c>
       <c r="C30">
-        <v>0.05329043460487658</v>
+        <v>0.06256948273452083</v>
       </c>
       <c r="D30">
-        <v>-0.1615918820289144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.173277290534715</v>
+      </c>
+      <c r="E30">
+        <v>0.02080415975120708</v>
+      </c>
+      <c r="F30">
+        <v>0.02737131797224546</v>
+      </c>
+      <c r="G30">
+        <v>-0.02114214895743916</v>
+      </c>
+      <c r="H30">
+        <v>0.07468366712812338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0609743279014283</v>
+        <v>0.05155636136466066</v>
       </c>
       <c r="C31">
-        <v>0.06539735354186452</v>
+        <v>0.07688926005356941</v>
       </c>
       <c r="D31">
-        <v>-0.07348914968431242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05649327324254154</v>
+      </c>
+      <c r="E31">
+        <v>0.01682018337465814</v>
+      </c>
+      <c r="F31">
+        <v>0.04327409079797079</v>
+      </c>
+      <c r="G31">
+        <v>0.008396788527026971</v>
+      </c>
+      <c r="H31">
+        <v>0.00988845109400033</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01121788802740877</v>
+        <v>0.01626074758620531</v>
       </c>
       <c r="C32">
-        <v>0.01569387684048314</v>
+        <v>0.01718286800220399</v>
       </c>
       <c r="D32">
-        <v>-0.08232394398464797</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1140530248802722</v>
+      </c>
+      <c r="E32">
+        <v>0.06680454080591214</v>
+      </c>
+      <c r="F32">
+        <v>0.05328692482868773</v>
+      </c>
+      <c r="G32">
+        <v>0.002085717860764553</v>
+      </c>
+      <c r="H32">
+        <v>0.05522417518781462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02335999000292452</v>
+        <v>0.02464815723555513</v>
       </c>
       <c r="C33">
-        <v>0.0397459996103406</v>
+        <v>0.04450142020824375</v>
       </c>
       <c r="D33">
-        <v>-0.1405821306628714</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1353120153345435</v>
+      </c>
+      <c r="E33">
+        <v>0.03613188883759533</v>
+      </c>
+      <c r="F33">
+        <v>0.02607133426160161</v>
+      </c>
+      <c r="G33">
+        <v>0.005128795341345264</v>
+      </c>
+      <c r="H33">
+        <v>0.06165615367197287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0304323468951351</v>
+        <v>0.02490322858910762</v>
       </c>
       <c r="C34">
-        <v>0.06543086193941423</v>
+        <v>0.06301790447738831</v>
       </c>
       <c r="D34">
-        <v>-0.0668436862264421</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05547277049400398</v>
+      </c>
+      <c r="E34">
+        <v>-0.007505769997407492</v>
+      </c>
+      <c r="F34">
+        <v>-0.01119693010618</v>
+      </c>
+      <c r="G34">
+        <v>0.006791879692888309</v>
+      </c>
+      <c r="H34">
+        <v>0.04268164982810189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008481610687714903</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001024216044994891</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007679502104920402</v>
+      </c>
+      <c r="E35">
+        <v>-0.0003315705930546396</v>
+      </c>
+      <c r="F35">
+        <v>0.0008445243973629566</v>
+      </c>
+      <c r="G35">
+        <v>0.0005017669810499267</v>
+      </c>
+      <c r="H35">
+        <v>0.004322792723984249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01782547976941964</v>
+        <v>0.018910917060194</v>
       </c>
       <c r="C36">
-        <v>0.007241328864199638</v>
+        <v>0.01557174375816786</v>
       </c>
       <c r="D36">
-        <v>-0.08096044852712431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07845739797957726</v>
+      </c>
+      <c r="E36">
+        <v>0.02684403178792781</v>
+      </c>
+      <c r="F36">
+        <v>0.01745108679345292</v>
+      </c>
+      <c r="G36">
+        <v>-0.008256494963219365</v>
+      </c>
+      <c r="H36">
+        <v>0.0461018351278021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01940805033178365</v>
+        <v>0.02193519477799308</v>
       </c>
       <c r="C38">
-        <v>0.01884307775711247</v>
+        <v>0.01915661137414246</v>
       </c>
       <c r="D38">
-        <v>-0.06461529683625679</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06742787339931954</v>
+      </c>
+      <c r="E38">
+        <v>0.03285197845953962</v>
+      </c>
+      <c r="F38">
+        <v>-0.01072829010287617</v>
+      </c>
+      <c r="G38">
+        <v>0.02651036327216475</v>
+      </c>
+      <c r="H38">
+        <v>0.04296248550897934</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03687470407067212</v>
+        <v>0.03415937380859424</v>
       </c>
       <c r="C39">
-        <v>0.05707353516635705</v>
+        <v>0.06856950179866116</v>
       </c>
       <c r="D39">
-        <v>-0.08976575006160858</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1026722762492452</v>
+      </c>
+      <c r="E39">
+        <v>0.009271319700856288</v>
+      </c>
+      <c r="F39">
+        <v>-0.01932009830615315</v>
+      </c>
+      <c r="G39">
+        <v>-0.0170677376845331</v>
+      </c>
+      <c r="H39">
+        <v>0.08620675596764267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01403322498267796</v>
+        <v>0.01339747076567742</v>
       </c>
       <c r="C40">
-        <v>0.04146001197941715</v>
+        <v>0.03645525550623183</v>
       </c>
       <c r="D40">
-        <v>-0.08462653451626546</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08902441807267772</v>
+      </c>
+      <c r="E40">
+        <v>0.03770490440289183</v>
+      </c>
+      <c r="F40">
+        <v>0.1027129634476495</v>
+      </c>
+      <c r="G40">
+        <v>0.1147080417046867</v>
+      </c>
+      <c r="H40">
+        <v>0.1439545606588267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02477544017459175</v>
+        <v>0.02406385392263491</v>
       </c>
       <c r="C41">
-        <v>0.0022670908991067</v>
+        <v>0.009078511292669372</v>
       </c>
       <c r="D41">
-        <v>-0.07019030630279698</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05306449208958312</v>
+      </c>
+      <c r="E41">
+        <v>0.04832798489377995</v>
+      </c>
+      <c r="F41">
+        <v>0.01977161958065833</v>
+      </c>
+      <c r="G41">
+        <v>0.02299348334352035</v>
+      </c>
+      <c r="H41">
+        <v>0.04007884934496506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02627766584174466</v>
+        <v>0.02338665550961803</v>
       </c>
       <c r="C43">
-        <v>0.01342562572209451</v>
+        <v>0.01833919741590176</v>
       </c>
       <c r="D43">
-        <v>-0.1103623868865113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08435099329435666</v>
+      </c>
+      <c r="E43">
+        <v>0.02386373526408683</v>
+      </c>
+      <c r="F43">
+        <v>0.01437261106481063</v>
+      </c>
+      <c r="G43">
+        <v>0.02570261090045977</v>
+      </c>
+      <c r="H43">
+        <v>0.04569955869454435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01351931374434365</v>
+        <v>0.01642722441577884</v>
       </c>
       <c r="C44">
-        <v>0.0417620404544036</v>
+        <v>0.0397286922302334</v>
       </c>
       <c r="D44">
-        <v>-0.08733229141529412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1048816829830973</v>
+      </c>
+      <c r="E44">
+        <v>0.04290310494785175</v>
+      </c>
+      <c r="F44">
+        <v>0.02763505108505508</v>
+      </c>
+      <c r="G44">
+        <v>0.01465403081579772</v>
+      </c>
+      <c r="H44">
+        <v>0.05150573157516086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01313421709139684</v>
+        <v>0.01193107384198855</v>
       </c>
       <c r="C46">
-        <v>0.02442405083850202</v>
+        <v>0.03082036426708791</v>
       </c>
       <c r="D46">
-        <v>-0.08730641082964875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08817411172004389</v>
+      </c>
+      <c r="E46">
+        <v>0.03034418482139893</v>
+      </c>
+      <c r="F46">
+        <v>0.01640788218760121</v>
+      </c>
+      <c r="G46">
+        <v>-0.003945944570542895</v>
+      </c>
+      <c r="H46">
+        <v>0.0834537536791692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09272139581211965</v>
+        <v>0.07979626690432819</v>
       </c>
       <c r="C47">
-        <v>0.07437036556418632</v>
+        <v>0.09127352058965527</v>
       </c>
       <c r="D47">
-        <v>-0.04912989541511655</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03648683517947766</v>
+      </c>
+      <c r="E47">
+        <v>0.03105451412816652</v>
+      </c>
+      <c r="F47">
+        <v>0.03172750157086341</v>
+      </c>
+      <c r="G47">
+        <v>0.01751935314179512</v>
+      </c>
+      <c r="H47">
+        <v>-0.05372790703608069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01156818978778677</v>
+        <v>0.01422262553026861</v>
       </c>
       <c r="C48">
-        <v>0.01715714392503991</v>
+        <v>0.02068369586811386</v>
       </c>
       <c r="D48">
-        <v>-0.06946308501477121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07377447774048597</v>
+      </c>
+      <c r="E48">
+        <v>0.05509775110613474</v>
+      </c>
+      <c r="F48">
+        <v>0.02514861527336804</v>
+      </c>
+      <c r="G48">
+        <v>-0.004710754259841151</v>
+      </c>
+      <c r="H48">
+        <v>0.05495176500659077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05850112208071385</v>
+        <v>0.04964390332404667</v>
       </c>
       <c r="C50">
-        <v>0.05650499463817853</v>
+        <v>0.06791367844839023</v>
       </c>
       <c r="D50">
-        <v>-0.06422115646667473</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05479425457864343</v>
+      </c>
+      <c r="E50">
+        <v>0.01987350903734218</v>
+      </c>
+      <c r="F50">
+        <v>0.04644376000841784</v>
+      </c>
+      <c r="G50">
+        <v>0.04108058908868421</v>
+      </c>
+      <c r="H50">
+        <v>0.01310768482286076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01057233322097446</v>
+        <v>0.01094025594369544</v>
       </c>
       <c r="C51">
-        <v>0.01539633324761851</v>
+        <v>0.02059675170676329</v>
       </c>
       <c r="D51">
-        <v>-0.08000873104184218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0895744382224864</v>
+      </c>
+      <c r="E51">
+        <v>0.005777996159114516</v>
+      </c>
+      <c r="F51">
+        <v>0.007472454651804274</v>
+      </c>
+      <c r="G51">
+        <v>-0.007397250579308068</v>
+      </c>
+      <c r="H51">
+        <v>0.08312535810822802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09110528322885537</v>
+        <v>0.08690341219436268</v>
       </c>
       <c r="C53">
-        <v>0.09332415394072101</v>
+        <v>0.1026035426922229</v>
       </c>
       <c r="D53">
-        <v>-0.01056217067317249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01770037352235376</v>
+      </c>
+      <c r="E53">
+        <v>0.09829524041361277</v>
+      </c>
+      <c r="F53">
+        <v>0.09024003395062552</v>
+      </c>
+      <c r="G53">
+        <v>-0.04364014699885049</v>
+      </c>
+      <c r="H53">
+        <v>-0.02843293724396879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02563842815206139</v>
+        <v>0.02599818739425224</v>
       </c>
       <c r="C54">
-        <v>0.02691514479987939</v>
+        <v>0.0337879868377681</v>
       </c>
       <c r="D54">
-        <v>-0.09335090599738674</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08724178772307301</v>
+      </c>
+      <c r="E54">
+        <v>0.03441601937974607</v>
+      </c>
+      <c r="F54">
+        <v>0.008576115386691287</v>
+      </c>
+      <c r="G54">
+        <v>0.03364011997247886</v>
+      </c>
+      <c r="H54">
+        <v>0.07635468243168951</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09139783044678523</v>
+        <v>0.08341427803671821</v>
       </c>
       <c r="C55">
-        <v>0.06966484739328832</v>
+        <v>0.08163635433250774</v>
       </c>
       <c r="D55">
-        <v>0.008091493333859208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004523916094152138</v>
+      </c>
+      <c r="E55">
+        <v>0.04860069231008345</v>
+      </c>
+      <c r="F55">
+        <v>0.06133790043252434</v>
+      </c>
+      <c r="G55">
+        <v>-0.02015533601785358</v>
+      </c>
+      <c r="H55">
+        <v>-0.01309171765923688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1383600240404447</v>
+        <v>0.1259241767015512</v>
       </c>
       <c r="C56">
-        <v>0.1039491287330568</v>
+        <v>0.1295821578830166</v>
       </c>
       <c r="D56">
-        <v>0.006023981447266708</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008332151666678353</v>
+      </c>
+      <c r="E56">
+        <v>0.0495759431020214</v>
+      </c>
+      <c r="F56">
+        <v>0.05635629603809392</v>
+      </c>
+      <c r="G56">
+        <v>0.005096162742907024</v>
+      </c>
+      <c r="H56">
+        <v>-0.04964632807234474</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.005621368508626965</v>
+        <v>0.007385712417987983</v>
       </c>
       <c r="C58">
-        <v>0.01912102973416619</v>
+        <v>0.03574887003932634</v>
       </c>
       <c r="D58">
-        <v>-0.2691167087498824</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3121121777763414</v>
+      </c>
+      <c r="E58">
+        <v>0.08506050631634166</v>
+      </c>
+      <c r="F58">
+        <v>0.0936247273757654</v>
+      </c>
+      <c r="G58">
+        <v>0.05237871054890225</v>
+      </c>
+      <c r="H58">
+        <v>0.02499390368307473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1462011428496049</v>
+        <v>0.1820280335499359</v>
       </c>
       <c r="C59">
-        <v>-0.1777741250833168</v>
+        <v>-0.1646119336803673</v>
       </c>
       <c r="D59">
-        <v>-0.04193481064274553</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05581672284072658</v>
+      </c>
+      <c r="E59">
+        <v>0.04353288390298973</v>
+      </c>
+      <c r="F59">
+        <v>-0.03159429473234291</v>
+      </c>
+      <c r="G59">
+        <v>0.0002594949389213378</v>
+      </c>
+      <c r="H59">
+        <v>-0.01599732843305351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.239009755620747</v>
+        <v>0.2266863611277427</v>
       </c>
       <c r="C60">
-        <v>0.07280246239569473</v>
+        <v>0.1031020573708675</v>
       </c>
       <c r="D60">
-        <v>-0.1899943166586015</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1343181751928434</v>
+      </c>
+      <c r="E60">
+        <v>-0.3197921643318153</v>
+      </c>
+      <c r="F60">
+        <v>-0.08862756671689545</v>
+      </c>
+      <c r="G60">
+        <v>-0.04604539051313179</v>
+      </c>
+      <c r="H60">
+        <v>-0.1394654230087083</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04343911431529313</v>
+        <v>0.03938652099634621</v>
       </c>
       <c r="C61">
-        <v>0.05283252382351197</v>
+        <v>0.06225421981922922</v>
       </c>
       <c r="D61">
-        <v>-0.1017306378483337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09333164627751413</v>
+      </c>
+      <c r="E61">
+        <v>0.002002714268074566</v>
+      </c>
+      <c r="F61">
+        <v>-0.01330442656503631</v>
+      </c>
+      <c r="G61">
+        <v>-0.00452014453823767</v>
+      </c>
+      <c r="H61">
+        <v>0.04697539665562232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01647670542637968</v>
+        <v>0.01577997556902037</v>
       </c>
       <c r="C63">
-        <v>0.02195006041317757</v>
+        <v>0.03146994669438619</v>
       </c>
       <c r="D63">
-        <v>-0.07919309200716453</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07545151451748881</v>
+      </c>
+      <c r="E63">
+        <v>0.009599571683610062</v>
+      </c>
+      <c r="F63">
+        <v>0.01378772043390094</v>
+      </c>
+      <c r="G63">
+        <v>-0.01039108987602397</v>
+      </c>
+      <c r="H63">
+        <v>0.05025201073171871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05876442453654589</v>
+        <v>0.0499881348867111</v>
       </c>
       <c r="C64">
-        <v>0.07318590159599252</v>
+        <v>0.08107678460281501</v>
       </c>
       <c r="D64">
-        <v>-0.05340051981838056</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05639562857243699</v>
+      </c>
+      <c r="E64">
+        <v>0.01790597776664727</v>
+      </c>
+      <c r="F64">
+        <v>0.004974623219303643</v>
+      </c>
+      <c r="G64">
+        <v>-0.0646323463344867</v>
+      </c>
+      <c r="H64">
+        <v>0.03235014625333182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0396723460256815</v>
+        <v>0.03929672333874359</v>
       </c>
       <c r="C65">
-        <v>0.02077410926815227</v>
+        <v>0.0296323187483004</v>
       </c>
       <c r="D65">
-        <v>-0.1264130974016596</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1168301204240839</v>
+      </c>
+      <c r="E65">
+        <v>-0.01092089045275662</v>
+      </c>
+      <c r="F65">
+        <v>0.01370284632966519</v>
+      </c>
+      <c r="G65">
+        <v>0.002875040070697506</v>
+      </c>
+      <c r="H65">
+        <v>0.02490244307492161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03996626439464741</v>
+        <v>0.03754163764898255</v>
       </c>
       <c r="C66">
-        <v>0.06381544012849702</v>
+        <v>0.0776767760338605</v>
       </c>
       <c r="D66">
-        <v>-0.1093284679535337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1288736072862136</v>
+      </c>
+      <c r="E66">
+        <v>0.00898981152599254</v>
+      </c>
+      <c r="F66">
+        <v>-0.008846209331196836</v>
+      </c>
+      <c r="G66">
+        <v>0.003087381947999101</v>
+      </c>
+      <c r="H66">
+        <v>0.05743575359444742</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03979322463930889</v>
+        <v>0.03848958766484458</v>
       </c>
       <c r="C67">
-        <v>0.02346985698865139</v>
+        <v>0.02611656073675754</v>
       </c>
       <c r="D67">
-        <v>-0.03422488114898357</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02770580916202177</v>
+      </c>
+      <c r="E67">
+        <v>0.0113065233849455</v>
+      </c>
+      <c r="F67">
+        <v>-0.01852857104076805</v>
+      </c>
+      <c r="G67">
+        <v>0.02079574434111379</v>
+      </c>
+      <c r="H67">
+        <v>0.0403482551627365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1689000165129025</v>
+        <v>0.2029170653710357</v>
       </c>
       <c r="C68">
-        <v>-0.2198704680243234</v>
+        <v>-0.1948472080238901</v>
       </c>
       <c r="D68">
-        <v>-0.02023752744741904</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02479080363669704</v>
+      </c>
+      <c r="E68">
+        <v>0.02434108634703708</v>
+      </c>
+      <c r="F68">
+        <v>0.03010915351769749</v>
+      </c>
+      <c r="G68">
+        <v>0.001950373971496854</v>
+      </c>
+      <c r="H68">
+        <v>0.01069334279554673</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08396040560719865</v>
+        <v>0.07111651626952192</v>
       </c>
       <c r="C69">
-        <v>0.09160281252949838</v>
+        <v>0.09903532520337868</v>
       </c>
       <c r="D69">
-        <v>-0.07105161761856603</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.05171841505857999</v>
+      </c>
+      <c r="E69">
+        <v>0.01957069739469943</v>
+      </c>
+      <c r="F69">
+        <v>0.01319644062869775</v>
+      </c>
+      <c r="G69">
+        <v>0.007634896591265612</v>
+      </c>
+      <c r="H69">
+        <v>-0.0261041927482971</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1516567431714713</v>
+        <v>0.1877436598738711</v>
       </c>
       <c r="C71">
-        <v>-0.2211024029044853</v>
+        <v>-0.2020263884816391</v>
       </c>
       <c r="D71">
-        <v>-0.03095517892351335</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03812414436384786</v>
+      </c>
+      <c r="E71">
+        <v>0.04238397360722905</v>
+      </c>
+      <c r="F71">
+        <v>0.06767186819411251</v>
+      </c>
+      <c r="G71">
+        <v>0.02917358569470322</v>
+      </c>
+      <c r="H71">
+        <v>-0.01246801914447749</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1068118464755303</v>
+        <v>0.1000805034995124</v>
       </c>
       <c r="C72">
-        <v>0.05504755943918354</v>
+        <v>0.07712439330553594</v>
       </c>
       <c r="D72">
-        <v>-0.09473877889829091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09553062956410743</v>
+      </c>
+      <c r="E72">
+        <v>-0.05243540291274509</v>
+      </c>
+      <c r="F72">
+        <v>0.02903471987824346</v>
+      </c>
+      <c r="G72">
+        <v>-0.03482848734760183</v>
+      </c>
+      <c r="H72">
+        <v>0.03303698241251628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2542573779875972</v>
+        <v>0.2338005619627077</v>
       </c>
       <c r="C73">
-        <v>0.03958092346906605</v>
+        <v>0.09392882061597184</v>
       </c>
       <c r="D73">
-        <v>-0.2972690292147425</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1697319874678499</v>
+      </c>
+      <c r="E73">
+        <v>-0.6191205965996137</v>
+      </c>
+      <c r="F73">
+        <v>-0.1986714444465924</v>
+      </c>
+      <c r="G73">
+        <v>-0.07043339409702551</v>
+      </c>
+      <c r="H73">
+        <v>-0.1785156751825021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1064769171831493</v>
+        <v>0.09436953615299343</v>
       </c>
       <c r="C74">
-        <v>0.07277566187983506</v>
+        <v>0.09267644930736459</v>
       </c>
       <c r="D74">
-        <v>0.007247258485729187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01245732317791293</v>
+      </c>
+      <c r="E74">
+        <v>0.03960219420535437</v>
+      </c>
+      <c r="F74">
+        <v>0.07436023810202141</v>
+      </c>
+      <c r="G74">
+        <v>-0.04202189646306215</v>
+      </c>
+      <c r="H74">
+        <v>-0.05396774076855702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2493430407851529</v>
+        <v>0.2215954527413855</v>
       </c>
       <c r="C75">
-        <v>0.1293890150519363</v>
+        <v>0.1687594855543032</v>
       </c>
       <c r="D75">
-        <v>0.07774794390330322</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09776565882945597</v>
+      </c>
+      <c r="E75">
+        <v>0.1053170823830136</v>
+      </c>
+      <c r="F75">
+        <v>0.02952594051224163</v>
+      </c>
+      <c r="G75">
+        <v>-0.009236446944902383</v>
+      </c>
+      <c r="H75">
+        <v>-0.08838168578874496</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1375165795999962</v>
+        <v>0.1225086258647331</v>
       </c>
       <c r="C76">
-        <v>0.09481084982310911</v>
+        <v>0.1149602266519353</v>
       </c>
       <c r="D76">
-        <v>0.005741060597420305</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.007924331723452419</v>
+      </c>
+      <c r="E76">
+        <v>0.09983726763607764</v>
+      </c>
+      <c r="F76">
+        <v>0.04798846444557874</v>
+      </c>
+      <c r="G76">
+        <v>-0.02550800838852941</v>
+      </c>
+      <c r="H76">
+        <v>0.0007568639912550373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05134869274410107</v>
+        <v>0.05561311197816575</v>
       </c>
       <c r="C77">
-        <v>0.06571453323156748</v>
+        <v>0.07547704121115864</v>
       </c>
       <c r="D77">
-        <v>-0.04723492254182576</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1297662196920685</v>
+      </c>
+      <c r="E77">
+        <v>0.3732790264353493</v>
+      </c>
+      <c r="F77">
+        <v>-0.2928158792552606</v>
+      </c>
+      <c r="G77">
+        <v>0.4629084197950157</v>
+      </c>
+      <c r="H77">
+        <v>-0.60824371896218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04269687034247314</v>
+        <v>0.04538897960336313</v>
       </c>
       <c r="C78">
-        <v>0.06075628335009656</v>
+        <v>0.06685614290869596</v>
       </c>
       <c r="D78">
-        <v>-0.1303366133280493</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1372475218595681</v>
+      </c>
+      <c r="E78">
+        <v>0.01034393263238408</v>
+      </c>
+      <c r="F78">
+        <v>0.03479989391447163</v>
+      </c>
+      <c r="G78">
+        <v>0.00703639786654523</v>
+      </c>
+      <c r="H78">
+        <v>-0.0006711919771274082</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04318553990979423</v>
+        <v>0.04916981806330529</v>
       </c>
       <c r="C79">
-        <v>0.08163158928751656</v>
+        <v>0.09869038127381377</v>
       </c>
       <c r="D79">
-        <v>0.08680241260980437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02234080513836686</v>
+      </c>
+      <c r="E79">
+        <v>0.211477077784936</v>
+      </c>
+      <c r="F79">
+        <v>0.3432669725319718</v>
+      </c>
+      <c r="G79">
+        <v>-0.6726460867116868</v>
+      </c>
+      <c r="H79">
+        <v>-0.3580647277068945</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02549368028264613</v>
+        <v>0.02390728497503417</v>
       </c>
       <c r="C80">
-        <v>0.04600022981762514</v>
+        <v>0.04724992347287001</v>
       </c>
       <c r="D80">
-        <v>-0.0184363404233431</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01831228356859063</v>
+      </c>
+      <c r="E80">
+        <v>0.01495645075216428</v>
+      </c>
+      <c r="F80">
+        <v>0.006989774718665707</v>
+      </c>
+      <c r="G80">
+        <v>-0.00147724185368281</v>
+      </c>
+      <c r="H80">
+        <v>0.07178257160219023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1387048843337856</v>
+        <v>0.1183941513510965</v>
       </c>
       <c r="C81">
-        <v>0.1054524856447894</v>
+        <v>0.1245039887768618</v>
       </c>
       <c r="D81">
-        <v>0.07105465460220789</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07458488177786177</v>
+      </c>
+      <c r="E81">
+        <v>0.09748700044951968</v>
+      </c>
+      <c r="F81">
+        <v>0.0669028402809643</v>
+      </c>
+      <c r="G81">
+        <v>-0.00717456769727714</v>
+      </c>
+      <c r="H81">
+        <v>-0.026125906303779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3172518415583876</v>
+        <v>0.2611591622614687</v>
       </c>
       <c r="C82">
-        <v>0.2615802222035052</v>
+        <v>0.2741631302809047</v>
       </c>
       <c r="D82">
-        <v>0.2356320131162013</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2368771571910486</v>
+      </c>
+      <c r="E82">
+        <v>-0.03047054598735518</v>
+      </c>
+      <c r="F82">
+        <v>0.01908057983925271</v>
+      </c>
+      <c r="G82">
+        <v>0.1933987388909308</v>
+      </c>
+      <c r="H82">
+        <v>-0.07296185585633928</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02741237200516819</v>
+        <v>0.01878591228233058</v>
       </c>
       <c r="C83">
-        <v>0.05314099832921419</v>
+        <v>0.05152852632741625</v>
       </c>
       <c r="D83">
-        <v>-0.05176055465214163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05020148036935027</v>
+      </c>
+      <c r="E83">
+        <v>0.03988637398003586</v>
+      </c>
+      <c r="F83">
+        <v>-0.05784247552066726</v>
+      </c>
+      <c r="G83">
+        <v>0.06102175100549932</v>
+      </c>
+      <c r="H83">
+        <v>-0.0509561549527918</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0007586200223120408</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.005071965404963216</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01859050332000813</v>
+      </c>
+      <c r="E84">
+        <v>0.01663988467524335</v>
+      </c>
+      <c r="F84">
+        <v>0.0162600658827422</v>
+      </c>
+      <c r="G84">
+        <v>0.0005484138413302095</v>
+      </c>
+      <c r="H84">
+        <v>0.02416286679147361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1721960122597015</v>
+        <v>0.1513589929969317</v>
       </c>
       <c r="C85">
-        <v>0.1103393333435796</v>
+        <v>0.1414035171058974</v>
       </c>
       <c r="D85">
-        <v>0.0366949243435221</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05784307727970125</v>
+      </c>
+      <c r="E85">
+        <v>0.03163989040523857</v>
+      </c>
+      <c r="F85">
+        <v>0.05953688169355288</v>
+      </c>
+      <c r="G85">
+        <v>-0.09419965196577057</v>
+      </c>
+      <c r="H85">
+        <v>-0.01886127945505169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01752180813075249</v>
+        <v>0.01840785166932365</v>
       </c>
       <c r="C86">
-        <v>0.03367666558124834</v>
+        <v>0.03365543901408817</v>
       </c>
       <c r="D86">
-        <v>-0.1157506256642336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1172342113580376</v>
+      </c>
+      <c r="E86">
+        <v>0.03115078289462357</v>
+      </c>
+      <c r="F86">
+        <v>-0.003923013333169998</v>
+      </c>
+      <c r="G86">
+        <v>0.07618416627150197</v>
+      </c>
+      <c r="H86">
+        <v>-0.02418310062864365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02220350540287004</v>
+        <v>0.03092048748673527</v>
       </c>
       <c r="C87">
-        <v>0.01854907529867665</v>
+        <v>0.02708837873821394</v>
       </c>
       <c r="D87">
-        <v>-0.1015198057920863</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1328343924315972</v>
+      </c>
+      <c r="E87">
+        <v>0.06309452458806292</v>
+      </c>
+      <c r="F87">
+        <v>0.0215660261799119</v>
+      </c>
+      <c r="G87">
+        <v>0.01064094938545912</v>
+      </c>
+      <c r="H87">
+        <v>0.06422495081476512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07469997441479405</v>
+        <v>0.06495327232317134</v>
       </c>
       <c r="C88">
-        <v>0.03968200662967423</v>
+        <v>0.05409898768572829</v>
       </c>
       <c r="D88">
-        <v>-0.04558169210972766</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02406203381800331</v>
+      </c>
+      <c r="E88">
+        <v>-0.0006879758452111868</v>
+      </c>
+      <c r="F88">
+        <v>0.03036290729038254</v>
+      </c>
+      <c r="G88">
+        <v>-0.006982473633014736</v>
+      </c>
+      <c r="H88">
+        <v>0.02682763834907157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2349254250619507</v>
+        <v>0.2867411124886145</v>
       </c>
       <c r="C89">
-        <v>-0.3952684630973497</v>
+        <v>-0.3419474552164291</v>
       </c>
       <c r="D89">
-        <v>0.007091635225747954</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002023046310434079</v>
+      </c>
+      <c r="E89">
+        <v>0.06165931748177024</v>
+      </c>
+      <c r="F89">
+        <v>0.001503423388958575</v>
+      </c>
+      <c r="G89">
+        <v>-0.03729677626501626</v>
+      </c>
+      <c r="H89">
+        <v>0.0872386492146611</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2062022261206078</v>
+        <v>0.2434159470224017</v>
       </c>
       <c r="C90">
-        <v>-0.29531188626155</v>
+        <v>-0.2453779602762252</v>
       </c>
       <c r="D90">
-        <v>-0.001943594885628092</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01898033296230356</v>
+      </c>
+      <c r="E90">
+        <v>0.04953137924426067</v>
+      </c>
+      <c r="F90">
+        <v>-0.0004455336451300085</v>
+      </c>
+      <c r="G90">
+        <v>0.04811404476757159</v>
+      </c>
+      <c r="H90">
+        <v>0.04692419922865661</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.176529761381388</v>
+        <v>0.1504926550572748</v>
       </c>
       <c r="C91">
-        <v>0.1466953064214226</v>
+        <v>0.1605242210594314</v>
       </c>
       <c r="D91">
-        <v>0.08266450742122951</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08448934785380825</v>
+      </c>
+      <c r="E91">
+        <v>0.1029333870743609</v>
+      </c>
+      <c r="F91">
+        <v>0.06939813946000971</v>
+      </c>
+      <c r="G91">
+        <v>-0.0539125461091175</v>
+      </c>
+      <c r="H91">
+        <v>-0.08230545358998671</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1807698292221573</v>
+        <v>0.2300252268435982</v>
       </c>
       <c r="C92">
-        <v>-0.2817602566047994</v>
+        <v>-0.2667132213760048</v>
       </c>
       <c r="D92">
-        <v>-0.02252395590171682</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03168172305737563</v>
+      </c>
+      <c r="E92">
+        <v>0.09120050690388901</v>
+      </c>
+      <c r="F92">
+        <v>0.01288750192122349</v>
+      </c>
+      <c r="G92">
+        <v>0.02960612616643923</v>
+      </c>
+      <c r="H92">
+        <v>0.01306321577838848</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.231832574129184</v>
+        <v>0.2632273667634811</v>
       </c>
       <c r="C93">
-        <v>-0.3044990812267759</v>
+        <v>-0.2532273014973168</v>
       </c>
       <c r="D93">
-        <v>-0.01159142122393335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006143748823923055</v>
+      </c>
+      <c r="E93">
+        <v>-0.01329269658500515</v>
+      </c>
+      <c r="F93">
+        <v>0.02476765057869846</v>
+      </c>
+      <c r="G93">
+        <v>-0.009332485462404361</v>
+      </c>
+      <c r="H93">
+        <v>0.009610962212761382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3791059157564171</v>
+        <v>0.329907965783182</v>
       </c>
       <c r="C94">
-        <v>0.205857493143617</v>
+        <v>0.2669459740287726</v>
       </c>
       <c r="D94">
-        <v>0.4464281352842717</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4420659109624189</v>
+      </c>
+      <c r="E94">
+        <v>0.05044137008146098</v>
+      </c>
+      <c r="F94">
+        <v>-0.04354750645097567</v>
+      </c>
+      <c r="G94">
+        <v>0.1354234428175018</v>
+      </c>
+      <c r="H94">
+        <v>0.4113763139169171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07124676933512918</v>
+        <v>0.06799167293496056</v>
       </c>
       <c r="C95">
-        <v>0.05727512977443949</v>
+        <v>0.063592717257323</v>
       </c>
       <c r="D95">
-        <v>-0.0782538717652536</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0851605765432223</v>
+      </c>
+      <c r="E95">
+        <v>0.2806060348086498</v>
+      </c>
+      <c r="F95">
+        <v>-0.7839036313176501</v>
+      </c>
+      <c r="G95">
+        <v>-0.4192254932881115</v>
+      </c>
+      <c r="H95">
+        <v>0.1822865318697512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1679851681974596</v>
+        <v>0.1636016576444257</v>
       </c>
       <c r="C98">
-        <v>0.03968620089493571</v>
+        <v>0.06904239210032791</v>
       </c>
       <c r="D98">
-        <v>-0.1660407009958153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1256650655463164</v>
+      </c>
+      <c r="E98">
+        <v>-0.3114445841519562</v>
+      </c>
+      <c r="F98">
+        <v>-0.04180118988081959</v>
+      </c>
+      <c r="G98">
+        <v>-0.04340085730695168</v>
+      </c>
+      <c r="H98">
+        <v>-0.105557082839857</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0006253392812538895</v>
+        <v>0.004339753992913651</v>
       </c>
       <c r="C101">
-        <v>0.02065417191079516</v>
+        <v>0.02154822158503792</v>
       </c>
       <c r="D101">
-        <v>-0.08002979907957554</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09203878834983624</v>
+      </c>
+      <c r="E101">
+        <v>0.01882788303908469</v>
+      </c>
+      <c r="F101">
+        <v>0.0357991103142208</v>
+      </c>
+      <c r="G101">
+        <v>0.0001143935046688239</v>
+      </c>
+      <c r="H101">
+        <v>0.08919405348980591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1241431775942644</v>
+        <v>0.1014052562155844</v>
       </c>
       <c r="C102">
-        <v>0.1178739189288792</v>
+        <v>0.1219048571275764</v>
       </c>
       <c r="D102">
-        <v>0.05335086533019643</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06341415037877113</v>
+      </c>
+      <c r="E102">
+        <v>0.02970944063371662</v>
+      </c>
+      <c r="F102">
+        <v>-0.005694061160402171</v>
+      </c>
+      <c r="G102">
+        <v>0.01705422180736367</v>
+      </c>
+      <c r="H102">
+        <v>-0.0405074854154921</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
